--- a/Case study/data.xlsx
+++ b/Case study/data.xlsx
@@ -1,40 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,18 +48,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -132,7 +215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -167,7 +249,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -343,37 +424,502 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>gioitinh</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CCCD</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SDT</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ngay</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>thang</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>nam</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>diachi</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ngay_dang_ky</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>gia_tri_the</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Nguyễn Cẩm Vân</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>123456741</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0123456963</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2 Hòa Bình</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>30/05/2022</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2023-05-30 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Trần Minh Anh</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>123456963</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0123456852</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>123 Nguyễn Thị Thập</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>28/12/2021</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2022-12-28 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Hoàng Thanh Bình</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>123456965</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0123456875</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>321 Nguyễn Đức Cảnh</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>30/05/2021</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2022-05-30 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lê Thị An</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>123456875</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0123456875</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>654 Nguyễn Lương Bằng</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>30/06/2022</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2023-06-30 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bùi Thị Cẩm Tiên</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>123456987</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0123654851</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>987 Nguyễn Hữu THọ</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>27/07/2022</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2023-07-27 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bùi Văn Tâm</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>123456975</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0123456964</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>789 Lưu Trọng Lưu</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>30/10/2021</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2022-10-30 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nguyễn Ân</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>123456971</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0123456987</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>123 Lâm Văn Bền</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>30/03/2021</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2022-03-30 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Nguyễn Minh</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Nguyễn Ân</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>123654999</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0123649851</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 Mai Văn Vĩnh</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>29/08/2021</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>44802</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>